--- a/Risorse/conversione binaria.xlsx
+++ b/Risorse/conversione binaria.xlsx
@@ -109,9 +109,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -142,7 +146,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -158,15 +162,16 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <f aca="false">IF(B2&lt;&gt;0,2^A2,0)</f>
         <v>0</v>
       </c>
@@ -179,7 +184,7 @@
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <f aca="false">IF(B3&lt;&gt;0,2^A3,0)</f>
         <v>0</v>
       </c>
@@ -188,7 +193,7 @@
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <f aca="false">IF(B4&lt;&gt;0,2^A4,0)</f>
         <v>0</v>
       </c>
@@ -197,7 +202,7 @@
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <f aca="false">IF(B5&lt;&gt;0,2^A5,0)</f>
         <v>0</v>
       </c>
@@ -206,7 +211,7 @@
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <f aca="false">IF(B6&lt;&gt;0,2^A6,0)</f>
         <v>0</v>
       </c>
@@ -215,7 +220,7 @@
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <f aca="false">IF(B7&lt;&gt;0,2^A7,0)</f>
         <v>0</v>
       </c>
@@ -224,7 +229,7 @@
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <f aca="false">IF(B8&lt;&gt;0,2^A8,0)</f>
         <v>0</v>
       </c>
@@ -233,16 +238,16 @@
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <f aca="false">IF(B9&lt;&gt;0,2^A9,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <f aca="false">IF(B10&lt;&gt;0,2^A10,0)</f>
         <v>0</v>
       </c>
@@ -251,7 +256,7 @@
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <f aca="false">IF(B11&lt;&gt;0,2^A11,0)</f>
         <v>0</v>
       </c>
@@ -260,7 +265,7 @@
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <f aca="false">IF(B12&lt;&gt;0,2^A12,0)</f>
         <v>0</v>
       </c>
@@ -269,7 +274,7 @@
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <f aca="false">IF(B13&lt;&gt;0,2^A13,0)</f>
         <v>0</v>
       </c>
@@ -278,7 +283,7 @@
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <f aca="false">IF(B14&lt;&gt;0,2^A14,0)</f>
         <v>0</v>
       </c>
@@ -287,7 +292,7 @@
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <f aca="false">IF(B15&lt;&gt;0,2^A15,0)</f>
         <v>0</v>
       </c>
@@ -296,7 +301,7 @@
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="2" t="n">
         <f aca="false">IF(B16&lt;&gt;0,2^A16,0)</f>
         <v>0</v>
       </c>
@@ -305,16 +310,16 @@
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="2" t="n">
         <f aca="false">IF(B17&lt;&gt;0,2^A17,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="2" t="n">
         <f aca="false">IF(B18&lt;&gt;0,2^A18,0)</f>
         <v>0</v>
       </c>
@@ -323,7 +328,7 @@
       <c r="A19" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="2" t="n">
         <f aca="false">IF(B19&lt;&gt;0,2^A19,0)</f>
         <v>0</v>
       </c>
@@ -332,7 +337,7 @@
       <c r="A20" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="2" t="n">
         <f aca="false">IF(B20&lt;&gt;0,2^A20,0)</f>
         <v>0</v>
       </c>
@@ -341,7 +346,7 @@
       <c r="A21" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="2" t="n">
         <f aca="false">IF(B21&lt;&gt;0,2^A21,0)</f>
         <v>0</v>
       </c>
@@ -350,7 +355,7 @@
       <c r="A22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="2" t="n">
         <f aca="false">IF(B22&lt;&gt;0,2^A22,0)</f>
         <v>0</v>
       </c>
@@ -359,7 +364,7 @@
       <c r="A23" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="2" t="n">
         <f aca="false">IF(B23&lt;&gt;0,2^A23,0)</f>
         <v>0</v>
       </c>
@@ -368,7 +373,7 @@
       <c r="A24" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="2" t="n">
         <f aca="false">IF(B24&lt;&gt;0,2^A24,0)</f>
         <v>0</v>
       </c>
@@ -377,7 +382,7 @@
       <c r="A25" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="2" t="n">
         <f aca="false">IF(B25&lt;&gt;0,2^A25,0)</f>
         <v>0</v>
       </c>
@@ -386,7 +391,7 @@
       <c r="A26" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="2" t="n">
         <f aca="false">IF(B26&lt;&gt;0,2^A26,0)</f>
         <v>0</v>
       </c>
@@ -395,7 +400,7 @@
       <c r="A27" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="2" t="n">
         <f aca="false">IF(B27&lt;&gt;0,2^A27,0)</f>
         <v>0</v>
       </c>
@@ -404,7 +409,7 @@
       <c r="A28" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="2" t="n">
         <f aca="false">IF(B28&lt;&gt;0,2^A28,0)</f>
         <v>0</v>
       </c>
@@ -413,7 +418,7 @@
       <c r="A29" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="2" t="n">
         <f aca="false">IF(B29&lt;&gt;0,2^A29,0)</f>
         <v>0</v>
       </c>
@@ -422,7 +427,7 @@
       <c r="A30" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="2" t="n">
         <f aca="false">IF(B30&lt;&gt;0,2^A30,0)</f>
         <v>0</v>
       </c>
@@ -431,7 +436,7 @@
       <c r="A31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="2" t="n">
         <f aca="false">IF(B31&lt;&gt;0,2^A31,0)</f>
         <v>0</v>
       </c>
@@ -440,7 +445,7 @@
       <c r="A32" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="2" t="n">
         <f aca="false">IF(B32&lt;&gt;0,2^A32,0)</f>
         <v>0</v>
       </c>
@@ -449,16 +454,16 @@
       <c r="A33" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="2" t="n">
         <f aca="false">IF(B33&lt;&gt;0,2^A33,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="2" t="n">
         <f aca="false">IF(B34&lt;&gt;0,2^A34,0)</f>
         <v>0</v>
       </c>
@@ -467,7 +472,7 @@
       <c r="A35" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="2" t="n">
         <f aca="false">IF(B35&lt;&gt;0,2^A35,0)</f>
         <v>0</v>
       </c>
@@ -476,7 +481,7 @@
       <c r="A36" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="2" t="n">
         <f aca="false">IF(B36&lt;&gt;0,2^A36,0)</f>
         <v>0</v>
       </c>
@@ -485,7 +490,7 @@
       <c r="A37" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="2" t="n">
         <f aca="false">IF(B37&lt;&gt;0,2^A37,0)</f>
         <v>0</v>
       </c>
@@ -494,7 +499,7 @@
       <c r="A38" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="2" t="n">
         <f aca="false">IF(B38&lt;&gt;0,2^A38,0)</f>
         <v>0</v>
       </c>
@@ -503,7 +508,7 @@
       <c r="A39" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="2" t="n">
         <f aca="false">IF(B39&lt;&gt;0,2^A39,0)</f>
         <v>0</v>
       </c>
@@ -512,7 +517,7 @@
       <c r="A40" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="2" t="n">
         <f aca="false">IF(B40&lt;&gt;0,2^A40,0)</f>
         <v>0</v>
       </c>
@@ -521,7 +526,7 @@
       <c r="A41" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="2" t="n">
         <f aca="false">IF(B41&lt;&gt;0,2^A41,0)</f>
         <v>0</v>
       </c>
@@ -530,7 +535,7 @@
       <c r="A42" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="2" t="n">
         <f aca="false">IF(B42&lt;&gt;0,2^A42,0)</f>
         <v>0</v>
       </c>
@@ -539,7 +544,7 @@
       <c r="A43" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43" s="2" t="n">
         <f aca="false">IF(B43&lt;&gt;0,2^A43,0)</f>
         <v>0</v>
       </c>
@@ -548,7 +553,7 @@
       <c r="A44" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44" s="2" t="n">
         <f aca="false">IF(B44&lt;&gt;0,2^A44,0)</f>
         <v>0</v>
       </c>
@@ -557,7 +562,7 @@
       <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45" s="2" t="n">
         <f aca="false">IF(B45&lt;&gt;0,2^A45,0)</f>
         <v>0</v>
       </c>
@@ -566,7 +571,7 @@
       <c r="A46" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46" s="2" t="n">
         <f aca="false">IF(B46&lt;&gt;0,2^A46,0)</f>
         <v>0</v>
       </c>
@@ -575,7 +580,7 @@
       <c r="A47" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47" s="2" t="n">
         <f aca="false">IF(B47&lt;&gt;0,2^A47,0)</f>
         <v>0</v>
       </c>
@@ -584,7 +589,7 @@
       <c r="A48" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48" s="2" t="n">
         <f aca="false">IF(B48&lt;&gt;0,2^A48,0)</f>
         <v>0</v>
       </c>
@@ -593,7 +598,7 @@
       <c r="A49" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49" s="2" t="n">
         <f aca="false">IF(B49&lt;&gt;0,2^A49,0)</f>
         <v>0</v>
       </c>
@@ -602,7 +607,7 @@
       <c r="A50" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50" s="2" t="n">
         <f aca="false">IF(B50&lt;&gt;0,2^A50,0)</f>
         <v>0</v>
       </c>
@@ -611,7 +616,7 @@
       <c r="A51" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C51" s="2" t="n">
         <f aca="false">IF(B51&lt;&gt;0,2^A51,0)</f>
         <v>0</v>
       </c>
@@ -620,7 +625,7 @@
       <c r="A52" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C52" s="2" t="n">
         <f aca="false">IF(B52&lt;&gt;0,2^A52,0)</f>
         <v>0</v>
       </c>
@@ -629,7 +634,7 @@
       <c r="A53" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C53" s="2" t="n">
         <f aca="false">IF(B53&lt;&gt;0,2^A53,0)</f>
         <v>0</v>
       </c>
@@ -638,7 +643,7 @@
       <c r="A54" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C54" s="2" t="n">
         <f aca="false">IF(B54&lt;&gt;0,2^A54,0)</f>
         <v>0</v>
       </c>
@@ -647,7 +652,7 @@
       <c r="A55" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C55" s="2" t="n">
         <f aca="false">IF(B55&lt;&gt;0,2^A55,0)</f>
         <v>0</v>
       </c>
@@ -656,7 +661,7 @@
       <c r="A56" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C56" s="2" t="n">
         <f aca="false">IF(B56&lt;&gt;0,2^A56,0)</f>
         <v>0</v>
       </c>
@@ -665,7 +670,7 @@
       <c r="A57" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C57" s="2" t="n">
         <f aca="false">IF(B57&lt;&gt;0,2^A57,0)</f>
         <v>0</v>
       </c>
@@ -674,7 +679,7 @@
       <c r="A58" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C58" s="2" t="n">
         <f aca="false">IF(B58&lt;&gt;0,2^A58,0)</f>
         <v>0</v>
       </c>
@@ -683,7 +688,7 @@
       <c r="A59" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C59" s="2" t="n">
         <f aca="false">IF(B59&lt;&gt;0,2^A59,0)</f>
         <v>0</v>
       </c>
@@ -692,7 +697,7 @@
       <c r="A60" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C60" s="2" t="n">
         <f aca="false">IF(B60&lt;&gt;0,2^A60,0)</f>
         <v>0</v>
       </c>
@@ -701,7 +706,7 @@
       <c r="A61" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C61" s="2" t="n">
         <f aca="false">IF(B61&lt;&gt;0,2^A61,0)</f>
         <v>0</v>
       </c>
@@ -710,7 +715,7 @@
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C62" s="2" t="n">
         <f aca="false">IF(B62&lt;&gt;0,2^A62,0)</f>
         <v>0</v>
       </c>
@@ -719,7 +724,7 @@
       <c r="A63" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C63" s="2" t="n">
         <f aca="false">IF(B63&lt;&gt;0,2^A63,0)</f>
         <v>0</v>
       </c>
@@ -728,7 +733,7 @@
       <c r="A64" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C64" s="2" t="n">
         <f aca="false">IF(B64&lt;&gt;0,2^A64,0)</f>
         <v>0</v>
       </c>
@@ -737,16 +742,16 @@
       <c r="A65" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C65" s="2" t="n">
         <f aca="false">IF(B65&lt;&gt;0,2^A65,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C66" s="2" t="n">
         <f aca="false">IF(B66&lt;&gt;0,2^A66,0)</f>
         <v>0</v>
       </c>
@@ -755,7 +760,7 @@
       <c r="A67" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C67" s="2" t="n">
         <f aca="false">IF(B67&lt;&gt;0,2^A67,0)</f>
         <v>0</v>
       </c>
@@ -764,7 +769,7 @@
       <c r="A68" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C68" s="2" t="n">
         <f aca="false">IF(B68&lt;&gt;0,2^A68,0)</f>
         <v>0</v>
       </c>
@@ -773,7 +778,7 @@
       <c r="A69" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C69" s="2" t="n">
         <f aca="false">IF(B69&lt;&gt;0,2^A69,0)</f>
         <v>0</v>
       </c>
@@ -782,7 +787,7 @@
       <c r="A70" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C70" s="2" t="n">
         <f aca="false">IF(B70&lt;&gt;0,2^A70,0)</f>
         <v>0</v>
       </c>
@@ -791,7 +796,7 @@
       <c r="A71" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C71" s="2" t="n">
         <f aca="false">IF(B71&lt;&gt;0,2^A71,0)</f>
         <v>0</v>
       </c>
@@ -800,7 +805,7 @@
       <c r="A72" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C72" s="2" t="n">
         <f aca="false">IF(B72&lt;&gt;0,2^A72,0)</f>
         <v>0</v>
       </c>
@@ -809,7 +814,7 @@
       <c r="A73" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C73" s="2" t="n">
         <f aca="false">IF(B73&lt;&gt;0,2^A73,0)</f>
         <v>0</v>
       </c>
@@ -818,7 +823,7 @@
       <c r="A74" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="C74" s="2" t="n">
         <f aca="false">IF(B74&lt;&gt;0,2^A74,0)</f>
         <v>0</v>
       </c>
@@ -827,7 +832,7 @@
       <c r="A75" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="C75" s="2" t="n">
         <f aca="false">IF(B75&lt;&gt;0,2^A75,0)</f>
         <v>0</v>
       </c>
@@ -836,7 +841,7 @@
       <c r="A76" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="C76" s="2" t="n">
         <f aca="false">IF(B76&lt;&gt;0,2^A76,0)</f>
         <v>0</v>
       </c>
@@ -845,7 +850,7 @@
       <c r="A77" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="C77" s="2" t="n">
         <f aca="false">IF(B77&lt;&gt;0,2^A77,0)</f>
         <v>0</v>
       </c>
@@ -854,7 +859,7 @@
       <c r="A78" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C78" s="1" t="n">
+      <c r="C78" s="2" t="n">
         <f aca="false">IF(B78&lt;&gt;0,2^A78,0)</f>
         <v>0</v>
       </c>
@@ -863,7 +868,7 @@
       <c r="A79" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="C79" s="2" t="n">
         <f aca="false">IF(B79&lt;&gt;0,2^A79,0)</f>
         <v>0</v>
       </c>
@@ -872,7 +877,7 @@
       <c r="A80" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C80" s="1" t="n">
+      <c r="C80" s="2" t="n">
         <f aca="false">IF(B80&lt;&gt;0,2^A80,0)</f>
         <v>0</v>
       </c>
@@ -881,7 +886,7 @@
       <c r="A81" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="C81" s="1" t="n">
+      <c r="C81" s="2" t="n">
         <f aca="false">IF(B81&lt;&gt;0,2^A81,0)</f>
         <v>0</v>
       </c>
@@ -890,7 +895,7 @@
       <c r="A82" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C82" s="1" t="n">
+      <c r="C82" s="2" t="n">
         <f aca="false">IF(B82&lt;&gt;0,2^A82,0)</f>
         <v>0</v>
       </c>
@@ -899,7 +904,7 @@
       <c r="A83" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C83" s="1" t="n">
+      <c r="C83" s="2" t="n">
         <f aca="false">IF(B83&lt;&gt;0,2^A83,0)</f>
         <v>0</v>
       </c>
@@ -908,7 +913,7 @@
       <c r="A84" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="C84" s="2" t="n">
         <f aca="false">IF(B84&lt;&gt;0,2^A84,0)</f>
         <v>0</v>
       </c>
@@ -917,7 +922,7 @@
       <c r="A85" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C85" s="1" t="n">
+      <c r="C85" s="2" t="n">
         <f aca="false">IF(B85&lt;&gt;0,2^A85,0)</f>
         <v>0</v>
       </c>
@@ -926,7 +931,7 @@
       <c r="A86" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="C86" s="2" t="n">
         <f aca="false">IF(B86&lt;&gt;0,2^A86,0)</f>
         <v>0</v>
       </c>
@@ -935,7 +940,7 @@
       <c r="A87" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C87" s="1" t="n">
+      <c r="C87" s="2" t="n">
         <f aca="false">IF(B87&lt;&gt;0,2^A87,0)</f>
         <v>0</v>
       </c>
@@ -944,7 +949,7 @@
       <c r="A88" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C88" s="1" t="n">
+      <c r="C88" s="2" t="n">
         <f aca="false">IF(B88&lt;&gt;0,2^A88,0)</f>
         <v>0</v>
       </c>
@@ -953,7 +958,7 @@
       <c r="A89" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="C89" s="2" t="n">
         <f aca="false">IF(B89&lt;&gt;0,2^A89,0)</f>
         <v>0</v>
       </c>
@@ -962,7 +967,7 @@
       <c r="A90" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="C90" s="2" t="n">
         <f aca="false">IF(B90&lt;&gt;0,2^A90,0)</f>
         <v>0</v>
       </c>
@@ -971,7 +976,7 @@
       <c r="A91" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C91" s="1" t="n">
+      <c r="C91" s="2" t="n">
         <f aca="false">IF(B91&lt;&gt;0,2^A91,0)</f>
         <v>0</v>
       </c>
@@ -980,7 +985,7 @@
       <c r="A92" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C92" s="1" t="n">
+      <c r="C92" s="2" t="n">
         <f aca="false">IF(B92&lt;&gt;0,2^A92,0)</f>
         <v>0</v>
       </c>
@@ -989,7 +994,7 @@
       <c r="A93" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="C93" s="2" t="n">
         <f aca="false">IF(B93&lt;&gt;0,2^A93,0)</f>
         <v>0</v>
       </c>
@@ -998,7 +1003,7 @@
       <c r="A94" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="C94" s="2" t="n">
         <f aca="false">IF(B94&lt;&gt;0,2^A94,0)</f>
         <v>0</v>
       </c>
@@ -1007,7 +1012,7 @@
       <c r="A95" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C95" s="1" t="n">
+      <c r="C95" s="2" t="n">
         <f aca="false">IF(B95&lt;&gt;0,2^A95,0)</f>
         <v>0</v>
       </c>
@@ -1016,7 +1021,7 @@
       <c r="A96" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C96" s="1" t="n">
+      <c r="C96" s="2" t="n">
         <f aca="false">IF(B96&lt;&gt;0,2^A96,0)</f>
         <v>0</v>
       </c>
@@ -1025,7 +1030,7 @@
       <c r="A97" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C97" s="1" t="n">
+      <c r="C97" s="2" t="n">
         <f aca="false">IF(B97&lt;&gt;0,2^A97,0)</f>
         <v>0</v>
       </c>
@@ -1034,7 +1039,7 @@
       <c r="A98" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C98" s="1" t="n">
+      <c r="C98" s="2" t="n">
         <f aca="false">IF(B98&lt;&gt;0,2^A98,0)</f>
         <v>0</v>
       </c>
@@ -1043,7 +1048,7 @@
       <c r="A99" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C99" s="1" t="n">
+      <c r="C99" s="2" t="n">
         <f aca="false">IF(B99&lt;&gt;0,2^A99,0)</f>
         <v>0</v>
       </c>
@@ -1052,7 +1057,7 @@
       <c r="A100" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C100" s="1" t="n">
+      <c r="C100" s="2" t="n">
         <f aca="false">IF(B100&lt;&gt;0,2^A100,0)</f>
         <v>0</v>
       </c>
@@ -1061,7 +1066,7 @@
       <c r="A101" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="C101" s="1" t="n">
+      <c r="C101" s="2" t="n">
         <f aca="false">IF(B101&lt;&gt;0,2^A101,0)</f>
         <v>0</v>
       </c>
@@ -1070,7 +1075,7 @@
       <c r="A102" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C102" s="1" t="n">
+      <c r="C102" s="2" t="n">
         <f aca="false">IF(B102&lt;&gt;0,2^A102,0)</f>
         <v>0</v>
       </c>
@@ -1079,7 +1084,7 @@
       <c r="A103" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C103" s="1" t="n">
+      <c r="C103" s="2" t="n">
         <f aca="false">IF(B103&lt;&gt;0,2^A103,0)</f>
         <v>0</v>
       </c>
@@ -1088,7 +1093,7 @@
       <c r="A104" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C104" s="1" t="n">
+      <c r="C104" s="2" t="n">
         <f aca="false">IF(B104&lt;&gt;0,2^A104,0)</f>
         <v>0</v>
       </c>
@@ -1097,7 +1102,7 @@
       <c r="A105" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C105" s="1" t="n">
+      <c r="C105" s="2" t="n">
         <f aca="false">IF(B105&lt;&gt;0,2^A105,0)</f>
         <v>0</v>
       </c>
@@ -1106,7 +1111,7 @@
       <c r="A106" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C106" s="1" t="n">
+      <c r="C106" s="2" t="n">
         <f aca="false">IF(B106&lt;&gt;0,2^A106,0)</f>
         <v>0</v>
       </c>
@@ -1115,7 +1120,7 @@
       <c r="A107" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="C107" s="1" t="n">
+      <c r="C107" s="2" t="n">
         <f aca="false">IF(B107&lt;&gt;0,2^A107,0)</f>
         <v>0</v>
       </c>
@@ -1124,7 +1129,7 @@
       <c r="A108" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="C108" s="1" t="n">
+      <c r="C108" s="2" t="n">
         <f aca="false">IF(B108&lt;&gt;0,2^A108,0)</f>
         <v>0</v>
       </c>
@@ -1133,7 +1138,7 @@
       <c r="A109" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="C109" s="1" t="n">
+      <c r="C109" s="2" t="n">
         <f aca="false">IF(B109&lt;&gt;0,2^A109,0)</f>
         <v>0</v>
       </c>
@@ -1142,7 +1147,7 @@
       <c r="A110" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="C110" s="1" t="n">
+      <c r="C110" s="2" t="n">
         <f aca="false">IF(B110&lt;&gt;0,2^A110,0)</f>
         <v>0</v>
       </c>
@@ -1151,7 +1156,7 @@
       <c r="A111" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="C111" s="1" t="n">
+      <c r="C111" s="2" t="n">
         <f aca="false">IF(B111&lt;&gt;0,2^A111,0)</f>
         <v>0</v>
       </c>
@@ -1160,7 +1165,7 @@
       <c r="A112" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C112" s="1" t="n">
+      <c r="C112" s="2" t="n">
         <f aca="false">IF(B112&lt;&gt;0,2^A112,0)</f>
         <v>0</v>
       </c>
@@ -1169,7 +1174,7 @@
       <c r="A113" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="C113" s="1" t="n">
+      <c r="C113" s="2" t="n">
         <f aca="false">IF(B113&lt;&gt;0,2^A113,0)</f>
         <v>0</v>
       </c>
@@ -1178,7 +1183,7 @@
       <c r="A114" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="C114" s="1" t="n">
+      <c r="C114" s="2" t="n">
         <f aca="false">IF(B114&lt;&gt;0,2^A114,0)</f>
         <v>0</v>
       </c>
@@ -1187,7 +1192,7 @@
       <c r="A115" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="C115" s="1" t="n">
+      <c r="C115" s="2" t="n">
         <f aca="false">IF(B115&lt;&gt;0,2^A115,0)</f>
         <v>0</v>
       </c>
@@ -1196,7 +1201,7 @@
       <c r="A116" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="C116" s="1" t="n">
+      <c r="C116" s="2" t="n">
         <f aca="false">IF(B116&lt;&gt;0,2^A116,0)</f>
         <v>0</v>
       </c>
@@ -1205,7 +1210,7 @@
       <c r="A117" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="C117" s="1" t="n">
+      <c r="C117" s="2" t="n">
         <f aca="false">IF(B117&lt;&gt;0,2^A117,0)</f>
         <v>0</v>
       </c>
@@ -1214,7 +1219,7 @@
       <c r="A118" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="C118" s="2" t="n">
         <f aca="false">IF(B118&lt;&gt;0,2^A118,0)</f>
         <v>0</v>
       </c>
@@ -1223,7 +1228,7 @@
       <c r="A119" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="C119" s="1" t="n">
+      <c r="C119" s="2" t="n">
         <f aca="false">IF(B119&lt;&gt;0,2^A119,0)</f>
         <v>0</v>
       </c>
@@ -1232,7 +1237,7 @@
       <c r="A120" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="C120" s="1" t="n">
+      <c r="C120" s="2" t="n">
         <f aca="false">IF(B120&lt;&gt;0,2^A120,0)</f>
         <v>0</v>
       </c>
@@ -1241,7 +1246,7 @@
       <c r="A121" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="C121" s="1" t="n">
+      <c r="C121" s="2" t="n">
         <f aca="false">IF(B121&lt;&gt;0,2^A121,0)</f>
         <v>0</v>
       </c>
@@ -1250,7 +1255,7 @@
       <c r="A122" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C122" s="1" t="n">
+      <c r="C122" s="2" t="n">
         <f aca="false">IF(B122&lt;&gt;0,2^A122,0)</f>
         <v>0</v>
       </c>
@@ -1259,7 +1264,7 @@
       <c r="A123" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="C123" s="1" t="n">
+      <c r="C123" s="2" t="n">
         <f aca="false">IF(B123&lt;&gt;0,2^A123,0)</f>
         <v>0</v>
       </c>
@@ -1268,7 +1273,7 @@
       <c r="A124" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="C124" s="1" t="n">
+      <c r="C124" s="2" t="n">
         <f aca="false">IF(B124&lt;&gt;0,2^A124,0)</f>
         <v>0</v>
       </c>
@@ -1277,7 +1282,7 @@
       <c r="A125" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C125" s="1" t="n">
+      <c r="C125" s="2" t="n">
         <f aca="false">IF(B125&lt;&gt;0,2^A125,0)</f>
         <v>0</v>
       </c>
@@ -1286,7 +1291,7 @@
       <c r="A126" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="C126" s="1" t="n">
+      <c r="C126" s="2" t="n">
         <f aca="false">IF(B126&lt;&gt;0,2^A126,0)</f>
         <v>0</v>
       </c>
@@ -1295,7 +1300,7 @@
       <c r="A127" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="C127" s="1" t="n">
+      <c r="C127" s="2" t="n">
         <f aca="false">IF(B127&lt;&gt;0,2^A127,0)</f>
         <v>0</v>
       </c>
@@ -1304,7 +1309,7 @@
       <c r="A128" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="C128" s="1" t="n">
+      <c r="C128" s="2" t="n">
         <f aca="false">IF(B128&lt;&gt;0,2^A128,0)</f>
         <v>0</v>
       </c>
@@ -1313,21 +1318,24 @@
       <c r="A129" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="C129" s="1" t="n">
+      <c r="C129" s="2" t="n">
         <f aca="false">IF(B129&lt;&gt;0,2^A129,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="C130" s="1" t="n">
+      <c r="C130" s="2" t="n">
         <f aca="false">IF(B130&lt;&gt;0,2^A130,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B1130" type="whole">
       <formula1>0</formula1>
